--- a/src/main/java/com/agp/qa/testdata/TestData.xlsx
+++ b/src/main/java/com/agp/qa/testdata/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jignesh\Intellij Project\AGP\AGP\src\main\java\com\agp\qa\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4AB08F-2D33-4578-9686-7DEB23977CAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F74A912D-071C-4E33-93C9-ED70B16FB071}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" activeTab="1" xr2:uid="{8D0547BC-497C-496A-A490-9F7554F7CA35}"/>
   </bookViews>
@@ -816,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E25C93D-BEFB-4C37-AA56-B8D7119BCFDF}">
   <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
